--- a/biology/Zoologie/Gomesophis_brasiliensis/Gomesophis_brasiliensis.xlsx
+++ b/biology/Zoologie/Gomesophis_brasiliensis/Gomesophis_brasiliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gomesophis brasiliensis, unique représentant du genre Gomesophis, est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gomesophis brasiliensis, unique représentant du genre Gomesophis, est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Minas Gerais, de São Paulo, du Paraná, du Rio Grande do Sul et de Santa Catarina[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Minas Gerais, de São Paulo, du Paraná, du Rio Grande do Sul et de Santa Catarina.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Gomesophis brasiliensis[2], une femelle adulte, mesure 466 mm dont 72 mm pour la queue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Gomesophis brasiliensis, une femelle adulte, mesure 466 mm dont 72 mm pour la queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de brasil(i) et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Pindamonhangaba dans l’État de São Paulo au Brésil[2]. Le nom du genre est formé à partir de Gomes, en l'honneur de João Florêncio Gomes, et du mot grec ophis, le serpent.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de brasil(i) et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Pindamonhangaba dans l’État de São Paulo au Brésil. Le nom du genre est formé à partir de Gomes, en l'honneur de João Florêncio Gomes, et du mot grec ophis, le serpent.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gomes, 1918 : Contribuição para o conhecimento dos ofidios do Brasil. III (1). Memórias do Instituto de Butantan, vol. 1, no 1, p. 57-83 (texte intégral). (pt)
 Hoge &amp; Mertens, 1959 : Eine neue Gattung opisthoglypher Nattern aus Brasilien. Senckenbergiana Biologica, vol. 40, no 5/6, p. 241-243.</t>
